--- a/InputData/fuels/PEIIR/Pollutant Emissions Intensity Improvement Rate.xlsx
+++ b/InputData/fuels/PEIIR/Pollutant Emissions Intensity Improvement Rate.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\fuels\PEIIR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\fuels\PEIIR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C5BDB8-164C-4260-8BDD-310BFE54C72D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21045" yWindow="1410" windowWidth="33360" windowHeight="21225" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="19425" windowHeight="10740" tabRatio="783"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,14 @@
     <sheet name="PEIIR-TFPEIIR-motorbikes" sheetId="13" r:id="rId7"/>
     <sheet name="PEIIR-EFPEIIR" sheetId="6" r:id="rId8"/>
     <sheet name="PEIIR-BFPEIIR" sheetId="7" r:id="rId9"/>
-    <sheet name="PEIIR-IFPEIIR" sheetId="19" r:id="rId10"/>
+    <sheet name="PEIIR-IFPEIIR-cement" sheetId="19" r:id="rId10"/>
+    <sheet name="PEIIR-IFPEIIR-ngps" sheetId="20" r:id="rId11"/>
+    <sheet name="PEIIR-IFPEIIR-steel" sheetId="24" r:id="rId12"/>
+    <sheet name="PEIIR-IFPEIIR-chemicals" sheetId="21" r:id="rId13"/>
+    <sheet name="PEIIR-IFPEIIR-mining" sheetId="22" r:id="rId14"/>
+    <sheet name="PEIIR-IFPEIIR-waste-mgmt" sheetId="25" r:id="rId15"/>
+    <sheet name="PEIIR-IFPEIIR-agriculture" sheetId="23" r:id="rId16"/>
+    <sheet name="PEIIR-IFPEIIR-other-industries" sheetId="26" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="BTU_per_kWh">About!#REF!</definedName>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="66">
   <si>
     <t>Source:</t>
   </si>
@@ -260,7 +266,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -357,8 +363,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 21" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 40" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 21" xfId="1"/>
+    <cellStyle name="Normal 40" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -454,23 +460,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -506,23 +495,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -698,38 +670,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.73046875" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,97 +709,97 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -839,7 +811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -847,20 +819,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.73046875" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" customWidth="1"/>
+    <col min="8" max="8" width="13.265625" customWidth="1"/>
+    <col min="9" max="9" width="15.265625" customWidth="1"/>
+    <col min="10" max="10" width="13.59765625" customWidth="1"/>
+    <col min="11" max="11" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>65</v>
       </c>
@@ -895,7 +867,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -930,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -965,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1000,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1035,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1070,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1105,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1140,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1175,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1210,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1245,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1280,7 +1252,3388 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.73046875" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" customWidth="1"/>
+    <col min="8" max="8" width="13.265625" customWidth="1"/>
+    <col min="9" max="9" width="15.265625" customWidth="1"/>
+    <col min="10" max="10" width="13.59765625" customWidth="1"/>
+    <col min="11" max="11" width="11.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.73046875" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" customWidth="1"/>
+    <col min="8" max="8" width="13.265625" customWidth="1"/>
+    <col min="9" max="9" width="15.265625" customWidth="1"/>
+    <col min="10" max="10" width="13.59765625" customWidth="1"/>
+    <col min="11" max="11" width="11.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.73046875" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" customWidth="1"/>
+    <col min="8" max="8" width="13.265625" customWidth="1"/>
+    <col min="9" max="9" width="15.265625" customWidth="1"/>
+    <col min="10" max="10" width="13.59765625" customWidth="1"/>
+    <col min="11" max="11" width="11.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.73046875" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" customWidth="1"/>
+    <col min="8" max="8" width="13.265625" customWidth="1"/>
+    <col min="9" max="9" width="15.265625" customWidth="1"/>
+    <col min="10" max="10" width="13.59765625" customWidth="1"/>
+    <col min="11" max="11" width="11.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.73046875" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" customWidth="1"/>
+    <col min="8" max="8" width="13.265625" customWidth="1"/>
+    <col min="9" max="9" width="15.265625" customWidth="1"/>
+    <col min="10" max="10" width="13.59765625" customWidth="1"/>
+    <col min="11" max="11" width="11.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.73046875" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" customWidth="1"/>
+    <col min="8" max="8" width="13.265625" customWidth="1"/>
+    <col min="9" max="9" width="15.265625" customWidth="1"/>
+    <col min="10" max="10" width="13.59765625" customWidth="1"/>
+    <col min="11" max="11" width="11.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.73046875" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" customWidth="1"/>
+    <col min="8" max="8" width="13.265625" customWidth="1"/>
+    <col min="9" max="9" width="15.265625" customWidth="1"/>
+    <col min="10" max="10" width="13.59765625" customWidth="1"/>
+    <col min="11" max="11" width="11.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1322,7 +4675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1330,21 +4683,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" customWidth="1"/>
+    <col min="5" max="5" width="18.59765625" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" customWidth="1"/>
+    <col min="7" max="7" width="16.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>65</v>
       </c>
@@ -1379,7 +4732,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1414,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1484,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1519,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1554,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1589,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1624,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1659,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1694,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1729,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1764,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1806,7 +5159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1814,21 +5167,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" customWidth="1"/>
+    <col min="3" max="3" width="14.265625" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" customWidth="1"/>
+    <col min="5" max="5" width="18.59765625" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" customWidth="1"/>
+    <col min="7" max="7" width="16.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>65</v>
       </c>
@@ -1863,7 +5216,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1898,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1933,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1968,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2003,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2038,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2073,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2143,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2178,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2213,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2248,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2290,7 +5643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -2298,21 +5651,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" customWidth="1"/>
+    <col min="5" max="5" width="18.59765625" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" customWidth="1"/>
+    <col min="7" max="7" width="16.59765625" customWidth="1"/>
+    <col min="8" max="8" width="14.59765625" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>65</v>
       </c>
@@ -2347,7 +5700,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2382,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2417,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2452,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2487,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2522,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2557,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2592,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2627,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2662,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2697,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2732,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2774,7 +6127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -2782,21 +6135,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" customWidth="1"/>
+    <col min="5" max="5" width="18.59765625" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" customWidth="1"/>
+    <col min="7" max="7" width="16.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>65</v>
       </c>
@@ -2831,7 +6184,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2866,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2901,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2936,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2971,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3006,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3041,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3076,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3111,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3146,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3181,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3216,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3258,7 +6611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -3266,21 +6619,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" customWidth="1"/>
+    <col min="5" max="5" width="18.59765625" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" customWidth="1"/>
+    <col min="7" max="7" width="16.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>65</v>
       </c>
@@ -3315,7 +6668,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3350,7 +6703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3385,7 +6738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3420,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3455,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3490,7 +6843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3525,7 +6878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3560,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3595,7 +6948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3630,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3665,7 +7018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3700,7 +7053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3742,7 +7095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -3750,21 +7103,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" customWidth="1"/>
+    <col min="3" max="3" width="13.265625" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" customWidth="1"/>
+    <col min="5" max="5" width="18.59765625" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" customWidth="1"/>
+    <col min="7" max="7" width="16.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>65</v>
       </c>
@@ -3799,7 +7152,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3834,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3869,7 +7222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3904,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3939,7 +7292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3974,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4009,7 +7362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4044,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4079,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4114,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4149,7 +7502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4184,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4226,7 +7579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -4234,25 +7587,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.265625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.73046875" customWidth="1"/>
+    <col min="10" max="10" width="15.73046875" customWidth="1"/>
+    <col min="11" max="11" width="16.1328125" customWidth="1"/>
+    <col min="12" max="12" width="20.73046875" customWidth="1"/>
+    <col min="13" max="13" width="13.73046875" customWidth="1"/>
+    <col min="14" max="14" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1328125" customWidth="1"/>
+    <col min="16" max="16" width="17.1328125" customWidth="1"/>
+    <col min="17" max="17" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>65</v>
       </c>
@@ -4305,7 +7658,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4358,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4411,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4464,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4517,7 +7870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4570,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4623,7 +7976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4676,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4729,7 +8082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4782,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4835,7 +8188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4888,7 +8241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4948,7 +8301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -4956,20 +8309,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" customWidth="1"/>
+    <col min="3" max="3" width="16.73046875" customWidth="1"/>
+    <col min="4" max="4" width="16.86328125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.73046875" customWidth="1"/>
+    <col min="8" max="8" width="13.265625" customWidth="1"/>
+    <col min="9" max="9" width="24.73046875" customWidth="1"/>
+    <col min="10" max="10" width="22.86328125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>65</v>
       </c>
@@ -5004,7 +8357,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -5039,7 +8392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5074,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5109,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5144,7 +8497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5179,7 +8532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5214,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5249,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5284,7 +8637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5319,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5354,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5389,7 +8742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
